--- a/team_details.xlsx
+++ b/team_details.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KULIAH\Document\Semester 7\Machine Learning\Prak\Project_ML_158_147\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE7CAC-637D-476F-8D33-AFE924543F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="team_details" sheetId="1" r:id="rId4"/>
+    <sheet name="team_details" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nama Anggota</t>
   </si>
@@ -34,55 +43,51 @@
     <t>Dina Ardilia Permana</t>
   </si>
   <si>
-    <t>Klasifikasi hewan menggunakan metode CNN dan teknik Augmentasi</t>
-  </si>
-  <si>
     <t>https://www.kaggle.com/anirudhg15/mammals-classification</t>
   </si>
   <si>
     <t>Mammals Classification</t>
   </si>
   <si>
-    <t>http://advances.utc.sk/index.php/AEEE/article/view/2202</t>
-  </si>
-  <si>
-    <t>Animal Recognition System Based on Convolutional Neural Network</t>
-  </si>
-  <si>
     <t>Aisah Alfiyatus R</t>
   </si>
   <si>
-    <t>https://www.sciencedirect.com/science/article/abs/pii/S1574954116302047</t>
-  </si>
-  <si>
-    <t>Towards automatic wild animal monitoring: Identification of animal species in camera-trap images using very deep convolutional neural networks</t>
+    <t>Klasifikasi hewan menggunakan metode CNN</t>
+  </si>
+  <si>
+    <t>https://www.koreascience.or.kr/article/JAKO202014151762091.page</t>
+  </si>
+  <si>
+    <t>Animal Face Classification using Dual Deep Convolutional Neural Network</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF24282C"/>
       <name val="Trebuchet"/>
-    </font>
-    <font>
-      <color rgb="FF505050"/>
-      <name val="NexusSerif"/>
     </font>
   </fonts>
   <fills count="3">
@@ -90,7 +95,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -99,42 +104,60 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -324,84 +347,90 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="59.57"/>
-    <col customWidth="1" min="3" max="3" width="51.43"/>
-    <col customWidth="1" min="4" max="4" width="21.14"/>
-    <col customWidth="1" min="5" max="5" width="63.86"/>
-    <col customWidth="1" min="6" max="6" width="122.43"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="63.85546875" customWidth="1"/>
+    <col min="6" max="6" width="122.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="E2"/>
-    <hyperlink r:id="rId3" ref="E3"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/team_details.xlsx
+++ b/team_details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KULIAH\Document\Semester 7\Machine Learning\Prak\Project_ML_158_147\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE7CAC-637D-476F-8D33-AFE924543F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5F7658-39AC-476E-9BEE-39536A4F9A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,17 +55,17 @@
     <t>Klasifikasi hewan menggunakan metode CNN</t>
   </si>
   <si>
-    <t>https://www.koreascience.or.kr/article/JAKO202014151762091.page</t>
-  </si>
-  <si>
-    <t>Animal Face Classification using Dual Deep Convolutional Neural Network</t>
+    <t>https://ijs.uobaghdad.edu.iq/index.php/eijs/article/view/1619</t>
+  </si>
+  <si>
+    <t>An Automated Classification of Mammals and Reptiles Animal Classes Using Deep Learning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -88,6 +88,12 @@
       <sz val="10"/>
       <color rgb="FF24282C"/>
       <name val="Trebuchet"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -128,10 +134,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -139,8 +146,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,20 +369,20 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="63.85546875" customWidth="1"/>
     <col min="6" max="6" width="122.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -415,7 +424,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -430,6 +439,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{BC369F07-A944-4454-9651-48953FEEC61C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
